--- a/DOC/v9978/v9978_spec.xlsx
+++ b/DOC/v9978/v9978_spec.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hra\Documents\web\xrea\msx\v9978\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\HRA_product\TangCartMSX\DOC\v9978\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -270,6 +270,42 @@
   </si>
   <si>
     <t>Linking sprites using relative coordinates</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sub-pixel precision in vertex coordinate registers for the polygon drawing feature.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sub-pixel precision in source, destination, and coefficient registers for linear transformation during blit operation.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Linear destinations and sources for blit operations, i.e. not a rectangle of pixels in the image in VRAM but an array of pixel data with a base address.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cave_fish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cave_fish</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポリゴン描画機能における頂点座標レジスタのサブピクセル精度。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブライト操作時の線形変換におけるソース、宛先、係数レジスタのサブピクセル精度。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブライト操作の線形宛先と線形ソース、すなわちVRAM内の画像内のピクセル矩形ではなく、ベースアドレスを持つピクセルデータの配列。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YUV mode</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -337,7 +373,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -346,6 +382,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,15 +675,15 @@
   <dimension ref="B2:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection sqref="A1:H22"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.25" customWidth="1"/>
     <col min="2" max="2" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5" customWidth="1"/>
-    <col min="5" max="5" width="51.875" customWidth="1"/>
+    <col min="4" max="4" width="42.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="51.875" style="5" customWidth="1"/>
     <col min="6" max="6" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -649,10 +694,10 @@
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -669,10 +714,10 @@
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -687,10 +732,10 @@
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -705,10 +750,10 @@
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -723,10 +768,10 @@
       <c r="C6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -741,10 +786,10 @@
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -759,10 +804,10 @@
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -777,10 +822,10 @@
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -788,17 +833,17 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:7" ht="27" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -813,10 +858,10 @@
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -831,10 +876,10 @@
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>30</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -849,10 +894,10 @@
       <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -867,10 +912,10 @@
       <c r="C14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -885,10 +930,10 @@
       <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -896,43 +941,83 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+    <row r="16" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+    <row r="17" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+    <row r="18" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="B19" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>

--- a/DOC/v9978/v9978_spec.xlsx
+++ b/DOC/v9978/v9978_spec.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -306,6 +306,25 @@
   </si>
   <si>
     <t>YUV mode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V9990 100%互換</t>
+    <rPh sb="10" eb="12">
+      <t>ゴカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V9990 100% Compatible</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aoineko</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -675,7 +694,7 @@
   <dimension ref="B2:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1015,10 +1034,18 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G20" s="2"/>
     </row>
   </sheetData>

--- a/DOC/v9978/v9978_spec.xlsx
+++ b/DOC/v9978/v9978_spec.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -325,6 +325,24 @@
   </si>
   <si>
     <t>aoineko</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCG化ビットマップモード？</t>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Attribute Table for bitmap modes
+The bitmap VRAM contents will be divided in 8x8 tiles and display is generated by indexing these tiles according to the attribute table (aka name table). In 2bpp and 4bpp modes, the attribute table should allow a selection of palettes on a per-tile basis.
+This effectively turns any bitmap mode into a tile mode, perfect for games.
+For compatibility, the VDP can generate tiles and palette offsets internally (by algorithm) to generate the classic display, unless the attribute table in VRAM is specifically enabled.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -691,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G20"/>
+  <dimension ref="B2:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1033,7 +1051,9 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B20" s="2"/>
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>48</v>
       </c>
@@ -1047,6 +1067,194 @@
         <v>51</v>
       </c>
       <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="2:7" ht="189" x14ac:dyDescent="0.15">
+      <c r="B21" s="2">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="2">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="2">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B24" s="2">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="2">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="2">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="2">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B28" s="2">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B29" s="2">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="2">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B31" s="2">
+        <v>29</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B32" s="2">
+        <v>30</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33" s="2">
+        <v>31</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="2">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B35" s="2">
+        <v>33</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B36" s="2">
+        <v>34</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="2">
+        <v>35</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B38" s="2">
+        <v>36</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/DOC/v9978/v9978_spec.xlsx
+++ b/DOC/v9978/v9978_spec.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Request Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Resolution" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -343,6 +344,22 @@
 The bitmap VRAM contents will be divided in 8x8 tiles and display is generated by indexing these tiles according to the attribute table (aka name table). In 2bpp and 4bpp modes, the attribute table should allow a selection of palettes on a per-tile basis.
 This effectively turns any bitmap mode into a tile mode, perfect for games.
 For compatibility, the VDP can generate tiles and palette offsets internally (by algorithm) to generate the classic display, unless the attribute table in VRAM is specifically enabled.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Horizontal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vertical</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V9968 compatible</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -711,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1261,4 +1278,78 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>256</v>
+      </c>
+      <c r="C3">
+        <v>192</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <v>256</v>
+      </c>
+      <c r="C4">
+        <v>212</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>512</v>
+      </c>
+      <c r="C5">
+        <v>192</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>512</v>
+      </c>
+      <c r="C6">
+        <v>212</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DOC/v9978/v9978_spec.xlsx
+++ b/DOC/v9978/v9978_spec.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Request Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Resolution" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -347,19 +346,87 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Horizontal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Vertical</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Note</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>V9968 compatible</t>
+    <t>Sprite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプライトを配置する仮想画面をスクロールするスクロールレジスタ。できれば、それは複数用意して、スプライトプレーン毎にどのスクロールレジスタにくっついていくかを指定できるようにする。</t>
+    <rPh sb="6" eb="8">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A scroll register that scrolls the virtual screen where sprites are placed. Ideally, multiple scroll registers should be provided, allowing specification of which scroll register each sprite plane attaches to.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tomomihime
+Spacemoai
+HRA!</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上記、スプライトの仮想画面が実現されると、画面外のスプライトが増えるので、沢山のスプライトプレーンを使いたい。1024以上扱えるとありがたい。</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ガメンガイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>タクサン</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>アツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Once the virtual sprite screen described above is implemented, the number of off-screen sprites will increase, so I want to use many sprite planes. It would be great if it could handle 1024 or more.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tomomihime</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -728,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1103,24 +1170,40 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" ht="54" x14ac:dyDescent="0.15">
       <c r="B22" s="2">
         <v>20</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" ht="54" x14ac:dyDescent="0.15">
       <c r="B23" s="2">
         <v>21</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.15">
@@ -1278,78 +1361,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B3">
-        <v>256</v>
-      </c>
-      <c r="C3">
-        <v>192</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B4">
-        <v>256</v>
-      </c>
-      <c r="C4">
-        <v>212</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B5">
-        <v>512</v>
-      </c>
-      <c r="C5">
-        <v>192</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B6">
-        <v>512</v>
-      </c>
-      <c r="C6">
-        <v>212</v>
-      </c>
-      <c r="D6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/DOC/v9978/v9978_spec.xlsx
+++ b/DOC/v9978/v9978_spec.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -427,6 +427,61 @@
   </si>
   <si>
     <t>Tomomihime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半透明合成の演算方法のバリエーションを増やす。
+（加算合成・減算合成・比較明・比較暗など）</t>
+    <rPh sb="0" eb="3">
+      <t>ハントウメイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゴウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>エンザン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ゴウセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ゲンサン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ゴウセイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Increase the variety of semi-transparent blending methods.
+(Additive blending, subtractive blending, luminance comparison, darkness comparison, etc.)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まかべ
+ごりぽん
+Te_Ho</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -795,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1206,14 +1261,22 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B24" s="2">
         <v>22</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.15">

--- a/DOC/v9978/v9978_spec.xlsx
+++ b/DOC/v9978/v9978_spec.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -482,6 +482,35 @@
     <t>まかべ
 ごりぽん
 Te_Ho</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sprite</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V9968のスプライトの延長のようなリッチなスプライト、だけど背景はシンプルな「スプライト重視モード」、
+背景の表現がリッチになるけど、スプライトは V9990相当の「背景重視モード」、
+を選択できるようにする。</t>
+    <rPh sb="12" eb="14">
+      <t>エンチョウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジュウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rich Sprite Mode: Sprites as rich as V9968 extensions, but with a simple background.
+Background-Focused Mode: Backgrounds become rich, but sprites are equivalent to V9990.
+Allow selection between these modes.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HRA!</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -851,7 +880,7 @@
   <dimension ref="B2:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1279,14 +1308,22 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B25" s="2">
         <v>23</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
